--- a/ExcelLevels/level0_0-0.xlsx
+++ b/ExcelLevels/level0_0-0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neumont\RichAnimation\RichAnimationFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neumont\RichAnimation\RichAnimationFinal\ExcelLevels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="27">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>bearTrap</t>
+  </si>
+  <si>
+    <t>wispWhiteblue</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1609,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1669,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1731,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -1784,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -1828,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -1840,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>4</v>
@@ -1849,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>4</v>
@@ -1922,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2005,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>4</v>
@@ -2090,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
@@ -2176,7 +2179,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
@@ -2745,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
